--- a/2015-16 FARP - All Undergrads.xlsx
+++ b/2015-16 FARP - All Undergrads.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="300" windowWidth="18180" windowHeight="8550" activeTab="3"/>
+    <workbookView xWindow="90" yWindow="300" windowWidth="18180" windowHeight="8550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="COA Data" sheetId="3" r:id="rId1"/>
@@ -246,32 +246,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>2014-15 Undergraduate Financial Aid Gap - Aid Recipients with Complete FAFSAs</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>¹</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and Need</t>
-    </r>
-  </si>
-  <si>
     <t>Undergraduate Gift Aid for 2014-15: Aid Recipients with Complete FAFSAs and Need</t>
   </si>
   <si>
@@ -331,17 +305,44 @@
       <t>²</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>2015-16 Undergraduate Financial Aid Gap - Aid Recipients with Complete FAFSAs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>¹</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Need</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -743,7 +744,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1026,16 +1027,18 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2418,12 +2421,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="406560824"/>
-        <c:axId val="406561608"/>
+        <c:axId val="415850288"/>
+        <c:axId val="415852640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="406560824"/>
+        <c:axId val="415850288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406561608"/>
+        <c:crossAx val="415852640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2451,7 +2454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406561608"/>
+        <c:axId val="415852640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,7 +2464,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406560824"/>
+        <c:crossAx val="415850288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2805,22 +2808,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'Gift Aid - Merit vs Need'!$C$9:$C$10</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>$5,884</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>$2,337</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-          </c:extLst>
+          <c:extLst/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3136,22 +3124,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'Gift Aid - Merit vs Need'!$E$9:$E$10</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>$10,592</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>$1,422</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-          </c:extLst>
+          <c:extLst/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3480,22 +3453,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'Gift Aid - Merit vs Need'!$G$9:$G$10</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>$6,103</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>$2,294</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-          </c:extLst>
+          <c:extLst/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3694,13 +3652,13 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7668.414927307469</c:v>
+                  <c:v>7599.6055553709402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11562.815765306123</c:v>
+                  <c:v>10336.810969387754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7849.7937544554461</c:v>
+                  <c:v>7727.088864950495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3796,13 +3754,13 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6757.2229392705822</c:v>
+                  <c:v>8386.7127565007886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13193.216547619048</c:v>
+                  <c:v>15878.871003401362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7056.9745623762374</c:v>
+                  <c:v>8735.6544633663379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3818,12 +3776,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="406562000"/>
-        <c:axId val="406556904"/>
+        <c:axId val="415859304"/>
+        <c:axId val="415859696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="406562000"/>
+        <c:axId val="415859304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +3801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406556904"/>
+        <c:crossAx val="415859696"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3851,7 +3809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406556904"/>
+        <c:axId val="415859696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,7 +3853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406562000"/>
+        <c:crossAx val="415859304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4118,13 +4076,13 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6757.2229392705822</c:v>
+                  <c:v>8386.7127565007886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13193.216547619048</c:v>
+                  <c:v>15878.871003401362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7056.9745623762374</c:v>
+                  <c:v>8735.6544633663379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4140,12 +4098,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="406563176"/>
-        <c:axId val="406564352"/>
+        <c:axId val="415856952"/>
+        <c:axId val="415857344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="406563176"/>
+        <c:axId val="415856952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,7 +4123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406564352"/>
+        <c:crossAx val="415857344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4173,7 +4131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406564352"/>
+        <c:axId val="415857344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,7 +4157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406563176"/>
+        <c:crossAx val="415856952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4540,9 +4498,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>628650</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5118,7 +5076,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Aid recipients by Class'!$A$2:$F$11" spid="_x0000_s5371"/>
+                  <a14:cameraTool cellRange="'Aid recipients by Class'!$A$2:$F$11" spid="_x0000_s5384"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5657,7 +5615,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gap Data &amp; Charts'!$A$2:$G$15" spid="_x0000_s6634"/>
+                  <a14:cameraTool cellRange="'Gap Data &amp; Charts'!$A$2:$G$15" spid="_x0000_s6660"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5716,7 +5674,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gift Aid - Merit vs Need'!$A$3:$G$17" spid="_x0000_s6635"/>
+                  <a14:cameraTool cellRange="'Gift Aid - Merit vs Need'!$A$3:$G$17" spid="_x0000_s6661"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6045,7 +6003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -6065,7 +6023,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -6075,10 +6033,10 @@
       <c r="A3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="110">
+      <c r="B3" s="108">
         <v>11622</v>
       </c>
-      <c r="C3" s="111">
+      <c r="C3" s="109">
         <f>SUM(B3:B6)</f>
         <v>25134</v>
       </c>
@@ -6088,7 +6046,7 @@
       <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="109">
         <v>840</v>
       </c>
       <c r="D4" s="53"/>
@@ -6097,7 +6055,7 @@
       <c r="A5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="109">
         <v>9450</v>
       </c>
       <c r="D5" s="53"/>
@@ -6106,7 +6064,7 @@
       <c r="A6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="109">
         <v>3222</v>
       </c>
       <c r="D6" s="53"/>
@@ -6117,7 +6075,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -6166,17 +6124,17 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="112">
+        <v>36</v>
+      </c>
+      <c r="B40" s="110">
         <v>42688</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="112">
+        <v>37</v>
+      </c>
+      <c r="B41" s="110">
         <v>42688</v>
       </c>
     </row>
@@ -6209,7 +6167,7 @@
     <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -6406,22 +6364,22 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="113">
+        <v>36</v>
+      </c>
+      <c r="B40" s="111">
         <v>42688</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="113">
+        <v>37</v>
+      </c>
+      <c r="B41" s="111">
         <v>42688</v>
       </c>
     </row>
@@ -6441,8 +6399,8 @@
   </sheetPr>
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6459,7 +6417,7 @@
     <row r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6673,17 +6631,19 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="113">
+        <v>36</v>
+      </c>
+      <c r="B40" s="111">
         <v>42688</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="113"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="111">
+        <v>42688</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6700,10 +6660,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6729,7 +6689,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6810,26 +6770,26 @@
         <v>29</v>
       </c>
       <c r="B7" s="82">
-        <v>173641403</v>
+        <v>192427313.52000001</v>
       </c>
       <c r="C7" s="83">
         <f>B7/B5</f>
-        <v>14425.63786657805</v>
+        <v>15986.31831187173</v>
       </c>
       <c r="D7" s="84">
-        <v>14556547</v>
+        <v>15414821</v>
       </c>
       <c r="E7" s="84">
         <f>D7/D5</f>
-        <v>24756.03231292517</v>
+        <v>26215.681972789116</v>
       </c>
       <c r="F7" s="82">
         <f>B7+D7</f>
-        <v>188197950</v>
+        <v>207842134.52000001</v>
       </c>
       <c r="G7" s="85">
         <f>F7/F5</f>
-        <v>14906.768316831683</v>
+        <v>16462.743328316832</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6837,26 +6797,26 @@
         <v>30</v>
       </c>
       <c r="B8" s="86">
-        <v>92304710.480000004</v>
+        <v>91476452.070000008</v>
       </c>
       <c r="C8" s="87">
         <f>B8/B5</f>
-        <v>7668.414927307469</v>
+        <v>7599.6055553709402</v>
       </c>
       <c r="D8" s="88">
-        <v>6798935.6699999999</v>
+        <v>6078044.8499999996</v>
       </c>
       <c r="E8" s="88">
         <f>D8/D5</f>
-        <v>11562.815765306123</v>
+        <v>10336.810969387754</v>
       </c>
       <c r="F8" s="86">
         <f>B8+D8</f>
-        <v>99103646.150000006</v>
+        <v>97554496.920000002</v>
       </c>
       <c r="G8" s="89">
         <f>F8/F5</f>
-        <v>7849.7937544554461</v>
+        <v>7727.088864950495</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6865,27 +6825,27 @@
       </c>
       <c r="B9" s="90">
         <f>B7-B8</f>
-        <v>81336692.519999996</v>
+        <v>100950861.45</v>
       </c>
       <c r="C9" s="91">
         <f>B9/B5</f>
-        <v>6757.2229392705822</v>
+        <v>8386.7127565007886</v>
       </c>
       <c r="D9" s="92">
         <f>D7-D8</f>
-        <v>7757611.3300000001</v>
+        <v>9336776.1500000004</v>
       </c>
       <c r="E9" s="92">
         <f>D9/D5</f>
-        <v>13193.216547619048</v>
+        <v>15878.871003401362</v>
       </c>
       <c r="F9" s="90">
         <f>B9+D9</f>
-        <v>89094303.849999994</v>
+        <v>110287637.60000001</v>
       </c>
       <c r="G9" s="93">
         <f>F9/F5</f>
-        <v>7056.9745623762374</v>
+        <v>8735.6544633663379</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7007,6 +6967,22 @@
     </row>
     <row r="23" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f>'Gift Aid - Merit vs Need'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B40" s="110">
+        <f>'Gift Aid - Merit vs Need'!B40</f>
+        <v>42688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f>'Gift Aid - Merit vs Need'!A41</f>
+        <v>Finish</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7023,17 +6999,44 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A14:R61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="14" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R14" s="112"/>
+    </row>
+    <row r="16" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R16" s="112"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="113" t="str">
+        <f>'COA Data'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B60" s="110">
+        <f>'COA Data'!B40</f>
+        <v>42688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>'COA Data'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B61" s="110">
+        <v>42689</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.65" right="0.25" top="0.5" bottom="0.75" header="0" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7053,9 +7056,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:colOff>628650</xdr:colOff>
                 <xdr:row>47</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7109,20 +7112,20 @@
       <c r="O6" s="55"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7159,46 +7162,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="A2" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="109"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="109"/>
+      <c r="A37" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
     </row>
     <row r="42" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/2015-16 FARP - All Undergrads.xlsx
+++ b/2015-16 FARP - All Undergrads.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="300" windowWidth="18180" windowHeight="8550" activeTab="4"/>
+    <workbookView xWindow="90" yWindow="300" windowWidth="18180" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="COA Data" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Resident</t>
   </si>
@@ -246,12 +246,6 @@
     </r>
   </si>
   <si>
-    <t>Undergraduate Gift Aid for 2014-15: Aid Recipients with Complete FAFSAs and Need</t>
-  </si>
-  <si>
-    <t>Undergraduate Financial Need and Financial Aid Gap (unmet financial need) for 2014-15</t>
-  </si>
-  <si>
     <t>Percentage of Total Cost for Resident 2015-16</t>
   </si>
   <si>
@@ -330,6 +324,15 @@
       </rPr>
       <t xml:space="preserve"> and Need</t>
     </r>
+  </si>
+  <si>
+    <t>Annual Indebtedness (From Annual Report) not ready</t>
+  </si>
+  <si>
+    <t>Undergraduate Gift Aid for 2015-16: Aid Recipients with Complete FAFSAs and Need</t>
+  </si>
+  <si>
+    <t>Undergraduate Financial Need and Financial Aid Gap (unmet financial need) for 2015-16</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1039,6 +1042,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1161,7 +1167,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>$22,680 </a:t>
+              <a:t>$25,134 </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
@@ -1225,36 +1231,50 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.7015529308836395E-2"/>
-                  <c:y val="-7.7376057159521727E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1000"/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Tuition/Fees,  $10,836 (48%)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+              <c:layout/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -1268,86 +1288,9 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12121244906680737"/>
-                  <c:y val="-1.3703703703703701E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1100"/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Books/Supplies,  $800 (4%)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27079890343196394"/>
-                      <c:h val="0.15937777777777778"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.4521434820647432E-2"/>
-                  <c:y val="-1.9626713327500728E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1000"/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Room/Board,  $9,246 (41%)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
+              <c:layout/>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -1362,44 +1305,8 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.1446850393700788E-2"/>
-                  <c:y val="1.9554170312044327E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1000"/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Misc./Travel,  $1,798</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000" baseline="0"/>
-                      <a:t> </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>(8%)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
+              <c:layout/>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -1419,32 +1326,23 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('COA Data'!$A$3,'COA Data'!$A$4,'COA Data'!$A$5,'COA Data'!$A$6)</c:f>
+              <c:f>'COA Data'!$A$3:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1464,7 +1362,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('COA Data'!$B$3,'COA Data'!$B$4,'COA Data'!$B$5,'COA Data'!$B$6)</c:f>
+              <c:f>'COA Data'!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1487,11 +1385,11 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -1585,7 +1483,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Estimated Cost of Attendance: $40,890</a:t>
+              <a:t>Estimated Cost of Attendance: $43,868</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
@@ -1654,160 +1552,32 @@
             <c:explosion val="13"/>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.2469597550306211E-2"/>
-                  <c:y val="-0.36720508894721493"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Tuition/Fees,  $29,046 (71%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10803543307086615"/>
-                  <c:y val="9.7862817147856523E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Books/Supplies,  $800 (2%)</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.2834645669291338E-3"/>
-                  <c:y val="-2.5802347623213765E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Room/Board,  $9,246 (23%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:t>Misc./Travel,  $1,798 (4%)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1855,11 +1625,11 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -1988,7 +1758,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2050,7 +1822,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2068,7 +1842,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2280,7 +2056,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2298,7 +2076,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2316,7 +2096,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2334,7 +2116,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2421,12 +2205,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="415850288"/>
-        <c:axId val="415852640"/>
+        <c:axId val="468364208"/>
+        <c:axId val="468371656"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="415850288"/>
+        <c:axId val="468364208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415852640"/>
+        <c:crossAx val="468371656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2454,7 +2238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415852640"/>
+        <c:axId val="468371656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,7 +2248,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="415850288"/>
+        <c:crossAx val="468364208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2683,22 +2467,29 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15494972355960082"/>
-                  <c:y val="0.1852640159110546"/>
+                  <c:x val="0.12034430621901457"/>
+                  <c:y val="0.24251838085456701"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Merit-Based, $5,462, 70%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2706,7 +2497,6 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -2717,22 +2507,29 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.25562091294057393"/>
-                  <c:y val="-0.24872467028577949"/>
+                  <c:x val="-0.2892651122739035"/>
+                  <c:y val="-0.28734288648701528"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Need-Based, $2,394, 30%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2740,10 +2537,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.24068202230477673"/>
+                      <c:h val="0.23985523548686849"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2755,27 +2556,28 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1"/>
+                  <a:defRPr sz="900"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:separator>, </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2813,9 +2615,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -2962,8 +2764,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3278034902125782E-2"/>
-          <c:y val="0.1565005302719123"/>
+          <c:x val="3.3277976214012378E-2"/>
+          <c:y val="0.17306369312531586"/>
           <c:w val="0.90016638935108162"/>
           <c:h val="0.82417207040296425"/>
         </c:manualLayout>
@@ -2981,7 +2783,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
-          <c:explosion val="7"/>
+          <c:explosion val="3"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -2999,22 +2801,29 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0492458690848067E-2"/>
-                  <c:y val="0.25162811170342836"/>
+                  <c:x val="3.711971008434739E-2"/>
+                  <c:y val="0.2848114637844183"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Merit-Based, $10,354, 87%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3022,7 +2831,6 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -3033,22 +2841,29 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17592266572772958"/>
-                  <c:y val="-3.2491808089206244E-2"/>
+                  <c:x val="-0.17536015078224881"/>
+                  <c:y val="-0.23395461436885606"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Need-Based, $1,595, 13%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3056,10 +2871,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.24564407882803577"/>
+                      <c:h val="0.24441010091129908"/>
+                    </c:manualLayout>
+                  </c15:layout>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3070,16 +2889,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -3087,11 +2896,10 @@
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:separator>, </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3129,9 +2937,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3319,22 +3127,50 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.19433722402247927"/>
-                  <c:y val="0.16305668313199981"/>
+                  <c:x val="0.20482102767165572"/>
+                  <c:y val="0.20127777506072611"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Merit-Based, $5,688, 71%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26425116315851915"/>
+                  <c:y val="-0.2475652499959245"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3346,46 +3182,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.24028347615093534"/>
-                      <c:h val="0.28132505175983435"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.22964229384337193"/>
-                  <c:y val="-0.21909261342332209"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" b="0" baseline="0"/>
-                      <a:t>Need-Based, $2,357, 29%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.21637070692045585"/>
-                      <c:h val="0.26890269151138718"/>
+                      <c:w val="0.23271109922795019"/>
+                      <c:h val="0.26055916923428052"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -3399,13 +3197,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip">
-                <a:noAutofit/>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1"/>
+                  <a:defRPr sz="900" b="1"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3420,7 +3218,7 @@
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3458,9 +3256,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3593,7 +3391,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3624,6 +3424,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3695,7 +3496,341 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Gap Data &amp; Charts'!$B$4,'Gap Data &amp; Charts'!$D$4,'Gap Data &amp; Charts'!$F$4)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Resident</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nonresident</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Combined</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Gap Data &amp; Charts'!$C$9,'Gap Data &amp; Charts'!$E$9,'Gap Data &amp; Charts'!$G$9)</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8386.7127565007886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15878.871003401362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8735.6544633663379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:shape val="box"/>
+        <c:axId val="468366560"/>
+        <c:axId val="468373224"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="468366560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468373224"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="468373224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent of Need</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468366560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="128"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="28"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="3" algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Average Financial Aid Gap (unmet need) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gap Data &amp; Charts'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Financial Aid Gap⁴ (unmet need)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.6235244396302794E-2"/>
+                  <c:y val="-0.25494449820430648"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2358672651563893E-2"/>
+                  <c:y val="-0.30541302235803813"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3668049416195049E-2"/>
+                  <c:y val="-0.24764325255227354"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3776,12 +3911,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="415859304"/>
-        <c:axId val="415859696"/>
+        <c:axId val="468364600"/>
+        <c:axId val="468362640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="415859304"/>
+        <c:axId val="468364600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3801,329 +3936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415859696"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="415859696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Percent of Need</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="415859304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.5"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="128"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="28"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="3" algn="ctr" rtl="0">
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Average Financial Aid Gap (unmet need) </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gap Data &amp; Charts'!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Financial Aid Gap⁴ (unmet need)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.6235244396302794E-2"/>
-                  <c:y val="-0.25494449820430648"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.2358672651563893E-2"/>
-                  <c:y val="-0.30541302235803813"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.3668049416195049E-2"/>
-                  <c:y val="-0.24764325255227354"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>('Gap Data &amp; Charts'!$B$4,'Gap Data &amp; Charts'!$D$4,'Gap Data &amp; Charts'!$F$4)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Resident</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nonresident</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Combined</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('Gap Data &amp; Charts'!$C$9,'Gap Data &amp; Charts'!$E$9,'Gap Data &amp; Charts'!$G$9)</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8386.7127565007886</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15878.871003401362</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8735.6544633663379</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:shape val="box"/>
-        <c:axId val="415856952"/>
-        <c:axId val="415857344"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="415856952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="415857344"/>
+        <c:crossAx val="468362640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4131,7 +3944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415857344"/>
+        <c:axId val="468362640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,13 +3970,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415856952"/>
+        <c:crossAx val="468364600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4702,7 +4516,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Overall Undergraduate Student Financial Aid Information for 2014-15</a:t>
+            <a:t>Overall Undergraduate Student Financial Aid Information for 2015-16</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
@@ -4752,7 +4566,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  HOPE Scholarship (merit-based State scholarship) maximum possible award amount: $3,390 per semester</a:t>
+            <a:t>  HOPE Scholarship (merit-based State scholarship) maximum possible award amount: $3,495 per semester</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4770,7 +4584,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Zell Miller Scholarship (merit-based State scholarship) maximum possible award amount: $4,295 per semester</a:t>
+            <a:t>  Zell Miller Scholarship (merit-based State scholarship) maximum possible award amount: $4,682 per semester</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4788,7 +4602,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Federal Pell Grant (need-based Federal grant) maximum possible award amount: $5,730 per academic year</a:t>
+            <a:t>  Federal Pell Grant (need-based Federal grant) maximum possible award amount: $5,775 per academic year</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4806,7 +4620,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Forty-eight (48) percent of 2014-15 UGA graduating seniors had an average indebtedness of $22,087</a:t>
+            <a:t>  Forty-eight (48) percent of 2015-16 UGA graduating seniors had an average indebtedness of $22,087</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4824,7 +4638,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  Estimated Cost of Attendance (Fall &amp; Spring): $22,680 (Resident), $40,890 (Nonresident) living on campus</a:t>
+            <a:t>  Estimated Cost of Attendance (Fall &amp; Spring): $</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>25,134</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Resident), $43,868 (Nonresident) living on campus</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4941,7 +4778,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2014-15 Financial Aid Recipient Profile</a:t>
+            <a:t>2015-16 Financial Aid Recipient Profile</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5076,7 +4913,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Aid recipients by Class'!$A$2:$F$11" spid="_x0000_s5384"/>
+                  <a14:cameraTool cellRange="'Aid recipients by Class'!$A$2:$F$11" spid="_x0000_s5406"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5166,7 +5003,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Undergraduate Aid Recipient Demographics for 2014-15</a:t>
+            <a:t>Undergraduate Aid Recipient Demographics for 2015-16</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
@@ -5277,7 +5114,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Twenty-five (25) percent of aid recipients are Federal Pell Grant eligible, with an average award of $4,393</a:t>
+            <a:t>Twenty-four (24) percent of aid recipients are Federal Pell Grant eligible, with an average award of $4,393</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5481,7 +5318,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="4086225"/>
-          <a:ext cx="9715500" cy="3067050"/>
+          <a:ext cx="9820275" cy="3067050"/>
           <a:chOff x="274320" y="2373630"/>
           <a:chExt cx="7248524" cy="2154555"/>
         </a:xfrm>
@@ -5555,7 +5392,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="28575" y="11268075"/>
-          <a:ext cx="9705975" cy="3419473"/>
+          <a:ext cx="9810750" cy="3419473"/>
           <a:chOff x="618708" y="2155680"/>
           <a:chExt cx="8270023" cy="2486700"/>
         </a:xfrm>
@@ -5603,8 +5440,8 @@
           <xdr:rowOff>57149</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>41819</xdr:rowOff>
         </xdr:to>
@@ -5615,7 +5452,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gap Data &amp; Charts'!$A$2:$G$15" spid="_x0000_s6660"/>
+                  <a14:cameraTool cellRange="'Gap Data &amp; Charts'!$A$2:$G$15" spid="_x0000_s6704"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5663,7 +5500,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>600074</xdr:colOff>
+          <xdr:colOff>495299</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>12461</xdr:rowOff>
         </xdr:to>
@@ -5674,7 +5511,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gift Aid - Merit vs Need'!$A$3:$G$17" spid="_x0000_s6661"/>
+                  <a14:cameraTool cellRange="'Gift Aid - Merit vs Need'!$A$3:$G$17" spid="_x0000_s6705"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6003,9 +5840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6023,7 +5858,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -6075,7 +5910,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -6124,7 +5959,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="110">
         <v>42688</v>
@@ -6132,7 +5967,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="110">
         <v>42688</v>
@@ -6149,7 +5984,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:B41"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6167,7 +6002,7 @@
     <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -6364,12 +6199,12 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="111">
         <v>42688</v>
@@ -6377,7 +6212,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="111">
         <v>42688</v>
@@ -6399,8 +6234,8 @@
   </sheetPr>
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6417,7 +6252,7 @@
     <row r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6631,7 +6466,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="111">
         <v>42688</v>
@@ -6639,7 +6474,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="111">
         <v>42688</v>
@@ -6689,7 +6524,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7001,7 +6836,7 @@
   </sheetPr>
   <dimension ref="A14:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -7077,10 +6912,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7127,6 +6962,25 @@
       <c r="M38" s="114"/>
       <c r="N38" s="114"/>
     </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="str">
+        <f>'COA Data'!A40</f>
+        <v>Start</v>
+      </c>
+      <c r="B80" s="113">
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="str">
+        <f>'COA Data'!A41</f>
+        <v>Finish</v>
+      </c>
+      <c r="B81" s="113"/>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="K38:L38"/>
@@ -7149,21 +7003,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P54"/>
+  <dimension ref="A2:P81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="115" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B2" s="115"/>
       <c r="C2" s="115"/>
@@ -7185,7 +7038,7 @@
     <row r="36" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="115" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B37" s="115"/>
       <c r="C37" s="115"/>
@@ -7205,6 +7058,25 @@
     </row>
     <row r="42" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="str">
+        <f>'Page 2'!A80</f>
+        <v>Start</v>
+      </c>
+      <c r="B80" s="116">
+        <f>'Page 2'!B80</f>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="str">
+        <f>'Page 2'!A81</f>
+        <v>Finish</v>
+      </c>
+      <c r="B81" s="116">
+        <v>42689</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:P2"/>

--- a/2015-16 FARP - All Undergrads.xlsx
+++ b/2015-16 FARP - All Undergrads.xlsx
@@ -1038,13 +1038,13 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1335,9 +1335,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2205,12 +2203,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="468364208"/>
-        <c:axId val="468371656"/>
+        <c:axId val="860708824"/>
+        <c:axId val="860713920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="468364208"/>
+        <c:axId val="860708824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468371656"/>
+        <c:crossAx val="860713920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2238,7 +2236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468371656"/>
+        <c:axId val="860713920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2246,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468364208"/>
+        <c:crossAx val="860708824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2368,7 +2366,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Average Gift Aid: $7,856</a:t>
+              <a:t>Average Gift Aid: $8,221</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="0"/>
           </a:p>
@@ -2576,9 +2574,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2713,7 +2709,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Average Gift Aid: $11,949</a:t>
+              <a:t>Average Gift Aid: $12,014</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="0"/>
           </a:p>
@@ -2898,9 +2894,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3035,7 +3029,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Average Gift Aid: $8,045</a:t>
+              <a:t>Average Gift Aid: $8,397</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="0"/>
           </a:p>
@@ -3217,9 +3211,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3580,12 +3572,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="468366560"/>
-        <c:axId val="468373224"/>
+        <c:axId val="860716664"/>
+        <c:axId val="860728424"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="468366560"/>
+        <c:axId val="860716664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3605,7 +3597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468373224"/>
+        <c:crossAx val="860728424"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3613,7 +3605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468373224"/>
+        <c:axId val="860728424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3658,7 +3650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468366560"/>
+        <c:crossAx val="860716664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3911,12 +3903,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="468364600"/>
-        <c:axId val="468362640"/>
+        <c:axId val="860718624"/>
+        <c:axId val="860727248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="468364600"/>
+        <c:axId val="860718624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3936,7 +3928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468362640"/>
+        <c:crossAx val="860727248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3944,7 +3936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468362640"/>
+        <c:axId val="860727248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,7 +3962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468364600"/>
+        <c:crossAx val="860718624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4913,7 +4905,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Aid recipients by Class'!$A$2:$F$11" spid="_x0000_s5406"/>
+                  <a14:cameraTool cellRange="'Aid recipients by Class'!$A$2:$F$11" spid="_x0000_s5409"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5452,7 +5444,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gap Data &amp; Charts'!$A$2:$G$15" spid="_x0000_s6704"/>
+                  <a14:cameraTool cellRange="'Gap Data &amp; Charts'!$A$2:$G$15" spid="_x0000_s6710"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5511,7 +5503,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Gift Aid - Merit vs Need'!$A$3:$G$17" spid="_x0000_s6705"/>
+                  <a14:cameraTool cellRange="'Gift Aid - Merit vs Need'!$A$3:$G$17" spid="_x0000_s6711"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6914,7 +6906,7 @@
   </sheetPr>
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
@@ -6947,20 +6939,20 @@
       <c r="O6" s="55"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
@@ -7015,46 +7007,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
     </row>
     <row r="19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="115" t="s">
+      <c r="A37" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="115"/>
-      <c r="O37" s="115"/>
-      <c r="P37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
     </row>
     <row r="42" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7063,7 +7055,7 @@
         <f>'Page 2'!A80</f>
         <v>Start</v>
       </c>
-      <c r="B80" s="116">
+      <c r="B80" s="114">
         <f>'Page 2'!B80</f>
         <v>42689</v>
       </c>
@@ -7073,7 +7065,7 @@
         <f>'Page 2'!A81</f>
         <v>Finish</v>
       </c>
-      <c r="B81" s="116">
+      <c r="B81" s="114">
         <v>42689</v>
       </c>
     </row>
